--- a/biology/Botanique/Myrsinaceae/Myrsinaceae.xlsx
+++ b/biology/Botanique/Myrsinaceae/Myrsinaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Myrsinacées sont une famille de plantes à fleurs dicotylédones qui comprend plus de 1 400 espèces réparties en 41 genres.
 Ce sont des arbres, des arbustes, des lianes, et des plantes herbacées des régions tempérées à tropicales. 
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Myrsine, dérivé du grec μυρσινη / myrsini, synonyme de μυρτος  / myrtos, « le myrte », nom utilisé pour « désigner un arbuste d'Afrique dont le feuillage ressemble beaucoup à celui du myrte »[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Myrsine, dérivé du grec μυρσινη / myrsini, synonyme de μυρτος  / myrtos, « le myrte », nom utilisé pour « désigner un arbuste d'Afrique dont le feuillage ressemble beaucoup à celui du myrte ».
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Beaucoup de genres d'herbacées initialement placés dans d'autres familles ont été rajoutés aux Myrsinaceae par la classification phylogénétique (APG et APG II) : Cyclamen, Lysimachia, etc, dont le genre Coris (en) qui fut le genre type de la famille des Coridaceae (nl).
-La classification phylogénétique APG (1998)[3] et la classification phylogénétique APG II (2003)[4] situent cette famille dans l'ordre des Ericales (auparavant dans l'ordre des Primulales).
-En classification phylogénétique APG III (2009)[5] et en classification phylogénétique APG IV (2016)[6] cette famille est invalide et ses genres sont incorporés dans la famille Primulaceae.
+La classification phylogénétique APG (1998) et la classification phylogénétique APG II (2003) situent cette famille dans l'ordre des Ericales (auparavant dans l'ordre des Primulales).
+En classification phylogénétique APG III (2009) et en classification phylogénétique APG IV (2016) cette famille est invalide et ses genres sont incorporés dans la famille Primulaceae.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (22 mai 2021)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (22 mai 2021) :
 Aegiceras (en) Gaertn.
 Amblyanthopsis (en) Mez
 Amblyanthus (es) A. DC.
@@ -626,7 +644,7 @@
 Wallenia (en) Sw.
 Walleniella (es) P. Wilson
 Yunckeria (es) Lundell
-Selon ITIS      (22 mai 2021)[7] :
+Selon ITIS      (22 mai 2021) :
 Anagallis L.
 Androsace L.
 Ardisia Sw.
@@ -646,7 +664,7 @@
 Stylogyne A. DC.
 Trientalis L.
 Wallenia Sw.
-Selon World Register of Marine Species                               (22 mai 2021)[8] :
+Selon World Register of Marine Species                               (22 mai 2021) :
 Aegiceras
 Anagallis L.
 Ardisia O. Swartz, 1788
@@ -656,7 +674,7 @@
 Primula
 Samolus
 Genres fossiles
-Selon Paleobiology Database                   (22 mai 2021)[9] :
+Selon Paleobiology Database                   (22 mai 2021) :
 Ardisiophyllum
 Myrsinites
 Myrsinophyllum
